--- a/python-in-excel-seasonal-decomposition-demo.xlsx
+++ b/python-in-excel-seasonal-decomposition-demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34F17D5D-1319-4C94-A14E-01129D377868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7C3433-E7AC-4830-B3C3-0A2E8CC6F9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -758,10 +758,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1362,7 +1362,7 @@
   <rv s="3">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1189x490 at 0x7F5AB1FB9EB0&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1189x490 at 0x7FAA2FED9A00&gt;</v>
     <v>26</v>
     <v>3</v>
   </rv>
@@ -1382,7 +1382,7 @@
   <rv s="3">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=989x1190 at 0x7F5AA95CEC00&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=989x1190 at 0x7FAA30266A80&gt;</v>
     <v>30</v>
     <v>3</v>
   </rv>
@@ -1818,7 +1818,7 @@
   <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3001,8 +3001,8 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3027,7 +3027,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3327,7 +3327,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>152</v>
       </c>
     </row>
